--- a/docs/Request/SRS_Dot_Matrix(Comments).xlsx
+++ b/docs/Request/SRS_Dot_Matrix(Comments).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Femto02\docs\Request\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\workspace\Femto02\docs\Request\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,13 +17,15 @@
     <sheet name="Mute 관련 사항" sheetId="6" r:id="rId3"/>
     <sheet name="변경전 화면표시" sheetId="5" r:id="rId4"/>
     <sheet name="History" sheetId="8" r:id="rId5"/>
+    <sheet name="예정사항" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="200">
   <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -819,6 +821,58 @@
   </si>
   <si>
     <t>Headphone, Line-out Function 동시켜짐 Bug 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 표시 잔상 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optical SPDIF 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sampling Rate 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop Noise 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remote control 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1124,9 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,8 +1139,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,6 +1250,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1213,6 +1302,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4188,7 +4294,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4204,48 +4310,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="16" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="33" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4255,13 +4361,13 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="2:7" ht="33">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -4273,13 +4379,13 @@
       <c r="F6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="33" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="33">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="15" t="s">
         <v>112</v>
       </c>
@@ -4289,13 +4395,13 @@
       <c r="F7" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="33" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="66">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -4307,13 +4413,13 @@
       <c r="F8" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="33">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="15" t="s">
         <v>113</v>
       </c>
@@ -4323,13 +4429,13 @@
       <c r="F9" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="33" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="33">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="15" t="s">
         <v>114</v>
       </c>
@@ -4339,13 +4445,13 @@
       <c r="F10" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="15" t="s">
         <v>139</v>
       </c>
@@ -4355,19 +4461,19 @@
       <c r="F11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="82.5">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="16" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="33" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4392,7 +4498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -5554,10 +5660,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5582,7 +5688,7 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
       <c r="C3" s="19">
@@ -5594,7 +5700,7 @@
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="27">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
       <c r="C4" s="19">
@@ -5606,7 +5712,7 @@
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="27">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
       <c r="C5" s="19">
@@ -5618,7 +5724,7 @@
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="27">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
       <c r="C6" s="19">
@@ -5630,7 +5736,7 @@
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="27">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
       <c r="C7" s="19">
@@ -5642,16 +5748,40 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="28">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29">
+        <v>43028</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="28">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29">
+        <v>43030</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="28">
+        <v>8</v>
+      </c>
+      <c r="C10" s="29">
+        <v>43030</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="17"/>
@@ -5756,10 +5886,110 @@
     <row r="36" spans="2:3">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="32">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="32">
+        <v>3</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="32">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="32">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>